--- a/test/london/london.summary.xlsx
+++ b/test/london/london.summary.xlsx
@@ -1,13 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/london/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_5A82C646C6BE7C826976F76717A6A8BF7C68B947" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAABCE2D-A5E1-4735-A1B2-5A0C718B94AF}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="5664" yWindow="636" windowWidth="16584" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" r:id="rId3" sheetId="1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,14 +119,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$GBP] #,##0.00_);[Red]([$GBP] #,##0.00)"/>
+    <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$GBP]\ #,##0.00_);[Red]\([$GBP]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,7 +138,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -132,29 +153,339 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -168,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -224,7 +555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -237,7 +568,7 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="n" s="1">
+      <c r="E3" s="1">
         <v>22.67</v>
       </c>
       <c r="F3" t="s">
@@ -246,38 +577,38 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n" s="1">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>22.67</v>
       </c>
-      <c r="K3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="n" s="1">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>86.88</v>
       </c>
-      <c r="P3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n" s="1">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>86.88</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -290,7 +621,7 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="n" s="2">
+      <c r="E4" s="2">
         <v>8.9</v>
       </c>
       <c r="F4" t="s">
@@ -299,43 +630,43 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="n" s="2">
+      <c r="I4" s="2">
         <v>4.45</v>
       </c>
-      <c r="J4" t="n" s="2">
+      <c r="J4" s="2">
         <v>4.45</v>
       </c>
-      <c r="K4" t="n" s="2">
+      <c r="K4" s="2">
         <v>176.02</v>
       </c>
-      <c r="L4" t="n" s="2">
+      <c r="L4" s="2">
         <v>-176.02</v>
       </c>
-      <c r="M4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n" s="2">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
         <v>230.24</v>
       </c>
-      <c r="O4" t="n" s="2">
+      <c r="O4" s="2">
         <v>263.83</v>
       </c>
-      <c r="P4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n" s="2">
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
         <v>406.25</v>
       </c>
-      <c r="R4" t="n" s="2">
+      <c r="R4" s="2">
         <v>87.81</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -348,7 +679,7 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="n" s="3">
+      <c r="E7" s="1">
         <v>22.67</v>
       </c>
       <c r="F7" t="s">
@@ -357,38 +688,38 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n" s="3">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>22.67</v>
       </c>
-      <c r="K7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O7" t="n" s="3">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>86.88</v>
       </c>
-      <c r="P7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="R7" t="n" s="3">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>86.88</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -401,7 +732,7 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="n" s="4">
+      <c r="E8" s="1">
         <v>11.837000000000002</v>
       </c>
       <c r="F8" t="s">
@@ -410,83 +741,85 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="n" s="4">
-        <v>5.918500000000001</v>
-      </c>
-      <c r="J8" t="n" s="4">
-        <v>5.918500000000001</v>
-      </c>
-      <c r="K8" t="n" s="4">
+      <c r="I8" s="1">
+        <v>5.9185000000000008</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.9185000000000008</v>
+      </c>
+      <c r="K8" s="1">
         <v>234.10660000000001</v>
       </c>
-      <c r="L8" t="n" s="4">
+      <c r="L8" s="1">
         <v>-234.10660000000001</v>
       </c>
-      <c r="M8" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="n" s="4">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>306.2192</v>
       </c>
-      <c r="O8" t="n" s="4">
-        <v>350.8939</v>
-      </c>
-      <c r="P8" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" t="n" s="4">
+      <c r="O8" s="1">
+        <v>350.89389999999997</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>540.3125</v>
       </c>
-      <c r="R8" t="n" s="4">
+      <c r="R8" s="1">
         <v>116.78730000000002</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" s="5">
-        <f>SUM(I7:I8)</f>
-      </c>
-      <c r="J9" s="5">
-        <f>SUM(J7:J8)</f>
-      </c>
-      <c r="K9" s="5">
-        <f>SUM(K7:K8)</f>
-      </c>
-      <c r="L9" s="5">
-        <f>SUM(L7:L8)</f>
-      </c>
-      <c r="M9" s="5">
-        <f>SUM(M7:M8)</f>
-      </c>
-      <c r="N9" s="5">
-        <f>SUM(N7:N8)</f>
-      </c>
-      <c r="O9" s="5">
-        <f>SUM(O7:O8)</f>
-      </c>
-      <c r="P9" s="5">
-        <f>SUM(P7:P8)</f>
-      </c>
-      <c r="Q9" s="5">
-        <f>SUM(Q7:Q8)</f>
-      </c>
-      <c r="R9" s="5">
-        <f>SUM(R7:R8)</f>
-      </c>
-    </row>
-    <row r="11">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:R9" si="0">SUM(I7:I8)</f>
+        <v>5.9185000000000008</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>28.588500000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>234.10660000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>-234.10660000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>306.2192</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>437.77389999999997</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>540.3125</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>203.66730000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -499,8 +832,8 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="n" s="6">
-        <v>17.04511277633</v>
+      <c r="E12" s="2">
+        <v>17.045112776330001</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -508,38 +841,38 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n" s="6">
-        <v>17.04511277633</v>
-      </c>
-      <c r="K12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n" s="6">
-        <v>65.32330824911999</v>
-      </c>
-      <c r="P12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n" s="6">
-        <v>65.32330824911999</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>17.045112776330001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>65.323308249119989</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>65.323308249119989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -552,7 +885,7 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="n" s="7">
+      <c r="E13" s="2">
         <v>8.9</v>
       </c>
       <c r="F13" t="s">
@@ -561,78 +894,80 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="I13" t="n" s="7">
+      <c r="I13" s="2">
         <v>4.45</v>
       </c>
-      <c r="J13" t="n" s="7">
+      <c r="J13" s="2">
         <v>4.45</v>
       </c>
-      <c r="K13" t="n" s="7">
+      <c r="K13" s="2">
         <v>176.02</v>
       </c>
-      <c r="L13" t="n" s="7">
+      <c r="L13" s="2">
         <v>-176.02</v>
       </c>
-      <c r="M13" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="N13" t="n" s="7">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
         <v>230.24</v>
       </c>
-      <c r="O13" t="n" s="7">
+      <c r="O13" s="2">
         <v>263.83</v>
       </c>
-      <c r="P13" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" t="n" s="7">
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>406.25</v>
       </c>
-      <c r="R13" t="n" s="7">
+      <c r="R13" s="2">
         <v>87.81</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14" s="8">
-        <f>SUM(I12:I13)</f>
-      </c>
-      <c r="J14" s="8">
-        <f>SUM(J12:J13)</f>
-      </c>
-      <c r="K14" s="8">
-        <f>SUM(K12:K13)</f>
-      </c>
-      <c r="L14" s="8">
-        <f>SUM(L12:L13)</f>
-      </c>
-      <c r="M14" s="8">
-        <f>SUM(M12:M13)</f>
-      </c>
-      <c r="N14" s="8">
-        <f>SUM(N12:N13)</f>
-      </c>
-      <c r="O14" s="8">
-        <f>SUM(O12:O13)</f>
-      </c>
-      <c r="P14" s="8">
-        <f>SUM(P12:P13)</f>
-      </c>
-      <c r="Q14" s="8">
-        <f>SUM(Q12:Q13)</f>
-      </c>
-      <c r="R14" s="8">
-        <f>SUM(R12:R13)</f>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I14" s="2">
+        <f t="shared" ref="I14:R14" si="1">SUM(I12:I13)</f>
+        <v>4.45</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>21.49511277633</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>176.02</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>-176.02</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
+        <v>230.24</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>329.15330824911996</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>406.25</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="1"/>
+        <v>153.13330824911998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>